--- a/data/trans_camb/P15A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,06</t>
+          <t>-1,81; 3,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 1,65</t>
+          <t>-2,58; 1,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 0,0</t>
+          <t>-3,48; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,32</t>
+          <t>-2,62; 2,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,74</t>
+          <t>-3,39; 1,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 1,97</t>
+          <t>-2,27; 1,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,42</t>
+          <t>-1,61; 2,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,04</t>
+          <t>-2,18; 0,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,39</t>
+          <t>-2,51; 0,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 181,21</t>
+          <t>-48,53; 182,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 121,57</t>
+          <t>-72,86; 115,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,14; 17,58</t>
+          <t>-88,06; 36,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 269,97</t>
+          <t>-71,04; 249,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,69; 148,29</t>
+          <t>-80,66; 121,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 164,56</t>
+          <t>-55,36; 152,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 124,9</t>
+          <t>-47,9; 120,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 57,64</t>
+          <t>-65,75; 52,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-61,9; 22,76</t>
+          <t>-65,27; 25,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,77</t>
+          <t>-3,55; 1,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,01</t>
+          <t>-4,61; 0,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 1,59</t>
+          <t>-3,85; 1,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 1,94</t>
+          <t>-2,31; 1,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,52</t>
+          <t>-0,55; 4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,13</t>
+          <t>-2,02; 1,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,13</t>
+          <t>-2,05; 1,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,62</t>
+          <t>-1,8; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,27</t>
+          <t>-2,09; 1,22</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,23; 81,59</t>
+          <t>-69,86; 89,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-86,7; 18,26</t>
+          <t>-87,02; 17,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,02; 85,5</t>
+          <t>-72,96; 109,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 348,8</t>
+          <t>-100,0; 389,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 698,63</t>
+          <t>-36,94; 706,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 268,56</t>
+          <t>-76,79; 226,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,99; 69,8</t>
+          <t>-62,2; 68,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 102,7</t>
+          <t>-54,12; 92,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,9; 84,15</t>
+          <t>-62,13; 76,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,34</t>
+          <t>-4,93; -0,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -1,16</t>
+          <t>-5,76; -1,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; -1,11</t>
+          <t>-6,1; -1,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,55</t>
+          <t>-4,51; 2,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,29</t>
+          <t>-3,13; 5,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,83</t>
+          <t>-3,6; 2,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; -0,41</t>
+          <t>-4,04; -0,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,33</t>
+          <t>-4,55; -0,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; -0,68</t>
+          <t>-5,04; -0,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,12; -4,56</t>
+          <t>-73,89; -1,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,04; -21,33</t>
+          <t>-83,14; -24,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-91,4; -25,97</t>
+          <t>-91,85; -25,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,88; 286,65</t>
+          <t>-88,67; 185,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 671,59</t>
+          <t>-77,98; 388,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,88; 203,48</t>
+          <t>-66,59; 266,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,96; -7,41</t>
+          <t>-69,7; -1,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,17; -5,88</t>
+          <t>-72,13; -4,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-85,06; -16,68</t>
+          <t>-82,79; -13,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,24</t>
+          <t>-1,52; 1,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,27</t>
+          <t>-2,22; 0,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,32</t>
+          <t>-2,29; 0,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,26</t>
+          <t>-3,23; 0,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; -0,82</t>
+          <t>-4,17; -0,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 0,08</t>
+          <t>-3,65; -0,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,52</t>
+          <t>-1,72; 0,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; -0,47</t>
+          <t>-2,54; -0,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; -0,15</t>
+          <t>-2,31; -0,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,04; 52,31</t>
+          <t>-39,38; 62,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 13,18</t>
+          <t>-56,98; 15,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,08; 15,05</t>
+          <t>-59,4; 20,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 11,98</t>
+          <t>-69,94; 23,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,12; -27,16</t>
+          <t>-87,55; -25,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,79; 1,2</t>
+          <t>-75,27; -2,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 17,45</t>
+          <t>-43,98; 18,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,73; -17,37</t>
+          <t>-65,92; -16,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,05; -4,76</t>
+          <t>-58,63; -4,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,45</t>
+          <t>-3,58; 1,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,61</t>
+          <t>-2,48; 2,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,01</t>
+          <t>-2,95; 3,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,43</t>
+          <t>-2,6; 1,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,96</t>
+          <t>-3,09; 1,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,56</t>
+          <t>-2,8; 1,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 0,85</t>
+          <t>-2,4; 0,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,03</t>
+          <t>-2,16; 1,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,53</t>
+          <t>-2,06; 1,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,1; 78,09</t>
+          <t>-68,84; 80,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 129,1</t>
+          <t>-46,68; 121,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 131,4</t>
+          <t>-60,71; 144,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 51,65</t>
+          <t>-50,75; 58,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,93; 36,75</t>
+          <t>-58,62; 42,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 57,2</t>
+          <t>-50,25; 52,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 29,89</t>
+          <t>-50,14; 30,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 36,19</t>
+          <t>-43,13; 41,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 52,04</t>
+          <t>-42,06; 49,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 0,17</t>
+          <t>-6,47; -0,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,45</t>
+          <t>-4,22; 3,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -1,21</t>
+          <t>-7,75; -0,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,52</t>
+          <t>-0,16; 2,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,98</t>
+          <t>-0,81; 1,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,91</t>
+          <t>-0,86; 1,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,68</t>
+          <t>-0,95; 1,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,79</t>
+          <t>-0,91; 1,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,9</t>
+          <t>-1,77; 0,68</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-83,27; 14,07</t>
+          <t>-83,56; 14,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-60,08; 104,68</t>
+          <t>-57,52; 106,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 23,29</t>
+          <t>-100,0; 19,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 161,5</t>
+          <t>-8,41; 159,59</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 121,81</t>
+          <t>-29,8; 112,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 109,21</t>
+          <t>-31,42; 113,19</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 72,75</t>
+          <t>-27,04; 73,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 79,17</t>
+          <t>-26,67; 78,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 43,22</t>
+          <t>-52,18; 29,93</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 0,0</t>
+          <t>-1,75; 0,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; -0,3</t>
+          <t>-1,98; -0,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; -0,75</t>
+          <t>-2,56; -0,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,76</t>
+          <t>-0,87; 0,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,5</t>
+          <t>-1,09; 0,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,5</t>
+          <t>-1,11; 0,47</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,11</t>
+          <t>-0,96; 0,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; -0,12</t>
+          <t>-1,26; -0,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,53; -0,3</t>
+          <t>-1,49; -0,25</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 0,66</t>
+          <t>-41,75; 3,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-46,95; -8,72</t>
+          <t>-47,57; -3,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-63,35; -23,01</t>
+          <t>-60,32; -18,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 31,48</t>
+          <t>-26,55; 34,84</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 20,89</t>
+          <t>-34,79; 22,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 20,85</t>
+          <t>-36,16; 20,11</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 4,08</t>
+          <t>-27,3; 7,87</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-36,0; -3,68</t>
+          <t>-35,16; -2,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-43,02; -9,92</t>
+          <t>-42,22; -9,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P15A-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P15A-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
